--- a/相关资料/物料清单.xlsx
+++ b/相关资料/物料清单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pixel Light\相关资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Neon-Zone\dev\相关资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCD64C3-4B00-498B-9EAB-945654127B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7D5939-77EE-456F-A31C-7775BB94A83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B58C5C72-B68F-48EC-B2C1-B0849ECF860D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>购买物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>3v x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12v 2A 3C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD48D23-4AC8-402E-B0B1-8B1ACAD80E85}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -594,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -632,9 +640,23 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="2">
-        <f>SUM(D2:D7)</f>
-        <v>155.55000000000001</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="2">
+        <f>SUM(D2:D8)</f>
+        <v>213.55</v>
       </c>
     </row>
   </sheetData>

--- a/相关资料/物料清单.xlsx
+++ b/相关资料/物料清单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pixel Light\相关资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Neon-Zone\dev\相关资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCD64C3-4B00-498B-9EAB-945654127B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261CBEF1-4CB9-487C-AACC-5E54011483B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B58C5C72-B68F-48EC-B2C1-B0849ECF860D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>购买物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>3v x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD48D23-4AC8-402E-B0B1-8B1ACAD80E85}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -594,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -632,9 +640,23 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="2">
-        <f>SUM(D2:D7)</f>
-        <v>155.55000000000001</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="2">
+        <f>SUM(D2:D8)</f>
+        <v>213.55</v>
       </c>
     </row>
   </sheetData>
